--- a/utilities/Excel_Sheets/Products/CYB_PAS.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_PAS.xlsx
@@ -627,7 +627,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/utilities/Excel_Sheets/Products/CYB_PAS.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_PAS.xlsx
@@ -674,36 +674,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="22">
+      <c r="A2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="18">
         <v>43221</v>
       </c>
-      <c r="C2" s="14">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="15">
-        <v>10000000</v>
-      </c>
-      <c r="H2" s="14">
-        <v>1</v>
-      </c>
-      <c r="I2" s="21"/>
+      <c r="G2" s="12">
+        <v>10000000</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="18">
         <v>43221</v>
@@ -712,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>6</v>
@@ -726,12 +726,12 @@
       <c r="H4" s="11">
         <v>1</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B6" s="18">
         <v>43221</v>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>6</v>
@@ -752,14 +752,14 @@
         <v>10000000</v>
       </c>
       <c r="H6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="18">
         <v>43221</v>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>6</v>
@@ -785,32 +785,32 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="18">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="22">
         <v>43221</v>
       </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="14">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="12">
-        <v>10000000</v>
-      </c>
-      <c r="H10" s="11">
-        <v>5</v>
-      </c>
-      <c r="I10" s="10"/>
+      <c r="G10" s="15">
+        <v>10000000</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
